--- a/public/template_penjualan.xlsx
+++ b/public/template_penjualan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TUGAS PWL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E8EF72-6152-4E83-A177-62474AE9B707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21A9FD3-0857-4429-9CCD-E3032D3E27F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{EFBF71C8-0B09-4A6E-8426-27BBAEFA66DC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>user_id</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>P0013</t>
+  </si>
+  <si>
+    <t>barang_id</t>
+  </si>
+  <si>
+    <t>jumlah</t>
+  </si>
+  <si>
+    <t>harga</t>
   </si>
 </sst>
 </file>
@@ -442,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E535F2-E6D8-4B05-AB22-A59595707A54}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -455,7 +464,7 @@
     <col min="4" max="6" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -474,8 +483,17 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -495,8 +513,17 @@
         <f>TEXT(D2,"yyyy-dd-mm")&amp;" "&amp;TEXT(E2,"hh:mm:ss")</f>
         <v>2024-01-01 23:45:00</v>
       </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>15000</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -516,8 +543,17 @@
         <f t="shared" ref="F3:F4" si="0">TEXT(D3,"yyyy-dd-mm")&amp;" "&amp;TEXT(E3,"hh:mm:ss")</f>
         <v>2024-02-01 00:45:00</v>
       </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>15000</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -536,6 +572,15 @@
       <c r="F4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2024-03-01 01:45:00</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>78000</v>
       </c>
     </row>
   </sheetData>
